--- a/upload/2506/2506_국제고_계약단가.xlsx
+++ b/upload/2506/2506_국제고_계약단가.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\이가에프앤비\00 a 급식계약\2506월 학진초_성동초_해원초_동아고_국제고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D7198-3965-4DB1-94E6-A2161400BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B11B7-19A8-49BA-9F9B-7ED6768688BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계약단가조회" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,9 @@
     <t>1000g/kg</t>
   </si>
   <si>
+    <t>오리고기/불고기용</t>
+  </si>
+  <si>
     <t>⑤소수점 이하 절사 합계금액</t>
   </si>
   <si>
@@ -62,6 +65,33 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>닭고기(가슴)</t>
+  </si>
+  <si>
+    <t>닭고기(가슴)/냉장</t>
+  </si>
+  <si>
+    <t>닭고기(가슴살, 안심살)/국산</t>
+  </si>
+  <si>
+    <t>닭고기(가슴살, 안심살)/깍둑썰기</t>
+  </si>
+  <si>
+    <t>닭고기(넓적다리살)</t>
+  </si>
+  <si>
+    <t>닭고기(봉)</t>
+  </si>
+  <si>
+    <t>닭고기(살코기)</t>
+  </si>
+  <si>
+    <t>닭고기(성계)/껍질제거(깐것)</t>
+  </si>
+  <si>
+    <t>닭고기(윙)</t>
+  </si>
+  <si>
     <t>15g/국산/1등급 이상/절단된것/냉장/국내산, 닭살정육, 날것, 전일 포장제품,냉장유통,도축, 작업, 가공 원라인(올품, 하림, 마니커)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -94,36 +124,6 @@
   <si>
     <t>국산/1등급 이상/불고기용/슬라이스/냉장/토치,기름제거</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭고기(가슴)(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(가슴)/냉장(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(가슴살, 안심살)/국산(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(가슴살, 안심살)/깍둑썰기(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(넓적다리살)(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(봉)(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(살코기)(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(성계)/껍질제거(깐것)(kg)</t>
-  </si>
-  <si>
-    <t>닭고기(윙)(kg)</t>
-  </si>
-  <si>
-    <t>오리고기/불고기용(kg)</t>
   </si>
 </sst>
 </file>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -670,14 +670,15 @@
     <col min="5" max="5" width="8.69921875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -685,7 +686,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,7 +699,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -707,7 +708,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,18 +731,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
+    <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
@@ -753,19 +754,21 @@
         <f>E5*F5</f>
         <v>1102500</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="H5" s="5"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5">
         <v>70</v>
@@ -777,19 +780,21 @@
         <f t="shared" ref="G6:G14" si="0">E6*F6</f>
         <v>770000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="H6" s="5"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5">
         <v>35</v>
@@ -801,19 +806,21 @@
         <f t="shared" si="0"/>
         <v>385000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="H7" s="5"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5">
         <v>30</v>
@@ -825,19 +832,21 @@
         <f t="shared" si="0"/>
         <v>330000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="H8" s="5"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5">
         <v>85</v>
@@ -849,19 +858,21 @@
         <f t="shared" si="0"/>
         <v>1615000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="H9" s="5"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5">
         <v>80</v>
@@ -873,19 +884,21 @@
         <f t="shared" si="0"/>
         <v>1280000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="H10" s="5"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
         <v>40</v>
@@ -897,19 +910,21 @@
         <f t="shared" si="0"/>
         <v>720000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5">
         <v>140</v>
@@ -921,19 +936,21 @@
         <f t="shared" si="0"/>
         <v>1680000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="H12" s="5"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5">
         <v>15</v>
@@ -945,19 +962,21 @@
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5">
         <v>90</v>
@@ -969,10 +988,12 @@
         <f t="shared" si="0"/>
         <v>2205000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -983,9 +1004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -995,6 +1016,10 @@
       <c r="G16" s="7">
         <f>SUM(G5:G14)</f>
         <v>10327500</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J5:J14)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
